--- a/DaySale_2025-05-27_22-47.xlsx
+++ b/DaySale_2025-05-27_22-47.xlsx
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -3226,7 +3232,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3325,7 +3331,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3391,7 +3397,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>35</v>
@@ -3417,28 +3423,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>35</v>
@@ -3457,24 +3463,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3490,7 +3496,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3556,7 +3562,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3582,7 +3588,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3599,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3615,7 +3621,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3820,7 +3826,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3834,7 +3840,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,7 +3885,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3896,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3919,7 +3925,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3952,7 +3958,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3985,7 +3991,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,11 +4001,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4018,7 +4024,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4084,7 +4090,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,7 +4281,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4315,7 +4321,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4348,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4414,7 +4420,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4430,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,11 +4463,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4490,11 +4496,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4513,7 +4519,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,49 +4529,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5077.8199999999997</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>275</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>54</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>139</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>276</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5113.8199999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
         <v>277</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>278</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>279</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5039,10 +5078,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-27_22-47.xlsx
+++ b/DaySale_2025-05-27_22-47.xlsx
@@ -104,6 +104,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANDODERMA EXTRA EMOLLIENT GEL 50 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -489,12 +498,6 @@
   </si>
   <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
   </si>
   <si>
     <t>HIPAMAX PLUS 20 CAPSULES</t>
@@ -1615,7 +1618,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1691,14 +1694,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1731,7 +1734,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1747,7 +1750,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1780,7 +1783,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1797,7 +1800,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1819,18 +1822,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1839,7 +1842,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1852,7 +1855,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1879,7 +1882,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1892,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1905,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1929,7 +1932,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1945,7 +1948,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1962,7 +1965,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1988,11 +1991,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2004,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2037,14 +2040,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2077,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2110,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2143,7 +2146,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2235,31 +2238,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,31 +2271,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2308,7 +2311,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2351,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,7 +2460,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2473,7 +2476,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2487,10 +2490,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2539,7 +2542,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2556,7 +2559,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2572,7 +2575,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,11 +2618,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2638,7 +2641,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2655,7 +2658,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2674,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2688,7 +2691,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2704,24 +2707,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,31 +2733,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2770,7 +2773,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2784,10 +2787,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2803,7 +2806,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2886,7 +2889,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2919,7 +2922,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2935,7 +2938,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2952,7 +2955,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2968,7 +2971,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3001,7 +3004,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3015,10 +3018,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3067,7 +3070,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,11 +3080,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3093,28 +3096,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3126,7 +3129,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3139,15 +3142,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3172,18 +3175,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,31 +3195,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,28 +3228,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3311,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,31 +3459,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,31 +3492,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3562,7 +3565,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3608,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3671,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3826,7 +3829,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3885,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,11 +4037,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4090,7 +4093,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4136,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4185,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,28 +4218,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4248,31 +4251,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4294,18 +4297,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,7 +4317,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4327,18 +4330,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,31 +4350,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,28 +4383,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4413,28 +4416,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4446,28 +4449,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4486,21 +4489,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4512,28 +4515,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4545,66 +4548,99 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>276</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5113.8199999999997</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>12</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>57</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>142</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>277</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5205.8199999999997</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>278</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
         <v>279</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>280</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5083,10 +5119,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
